--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Accelerator</t>
+          <t>DL Accelerator</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -476,70 +476,80 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Vision Accelerator</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Safety Cluster Engine</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Memory</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Storage</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Video Encode</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Video Decode</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CSI Camera</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PCIe</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Display</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Other I/O</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>PCIe</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Networking</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Display</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Other I/O</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Mechanical</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> DL Accelerator </t>
         </is>
@@ -581,80 +591,86 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>2x NVDLA v2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.6 GHz</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>1x PVA v2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.6 GHz</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>64GB 256-bit LPDDR5  204.8GB/s</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>64GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2x 4K60 (H.265) 4x 4K30 (H.265) 8x 1080p60 (H.265) 16x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>1x 8K30 (H.265) 3x 4K60 (H.265) 7x 4K30 (H.265) 11x 1080p60 (H.265) 22x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>16-lane MIPI CSI-2 connector</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>x16 PCIe slot supporting x8 PCIe Gen4 M.2 Key M slot with x4 PCIe Gen4 M.2 Key E slot with x1 PCIe Gen4</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t xml:space="preserve">USB Type-C connector: 2x USB 3.2 Gen2 USB Type-A connector: 2x USB 3.2 Gen2, 2x USB 3.2 Gen1  USB Micro-B connector: USB 2.0 </t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>RJ45 connector with up to 10 GbE</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>1x DisplayPort 1.4a (+MST) connector</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>40-pin header (UART, SPI, I2S, I2C, CAN, PWM, DMIC, GPIO) 12-pin automation header 10-pin audio panel header 10-pin JTAG header 4-pin fan header 2-pin RTC batter backup connector microSD slot DC power jack Power, Force Recovery, and Reset buttons</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>15W - 60W</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>110mm x 110mm x 71.65mm (Height includes feet, carrier board, module, and thermal solution)</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -692,80 +708,86 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>2x NVDLA v2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.6 GHz</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>1x PVA v2</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.6 GHz</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>64GB 256-bit LPDDR5  204.8GB/s</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>64GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2x 4K60 (H.265) 4x 4K30 (H.265) 8x 1080p60 (H.265) 16x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>1x 8K30 (H.265) 3x 4K60 (H.265) 7x 4K30 (H.265) 11x 1080p60 (H.265) 22x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Up to 6 cameras (16 via virtual channels) 16 lanes MIPI CSI-2 D-PHY 2.1 (up to 40Gbps) | C-PHY 2.0 (up to 164Gbps)</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Up to 2 x8 + 1 x4 + 2 x1  (PCIe Gen4, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 4x USB 2.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>1x GbE 1x 10GbE</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>1x 8K60 multi-mode DP 1.4a (+MST)/eDP 1.4a/HDMI 2.1</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t xml:space="preserve">4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs </t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>15W - 60W</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -803,80 +825,86 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>2x NVDLA v2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.4 GHz</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>1x PVA v2</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.4 GHz</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>64GB 256-bit LPDDR5 (+ ECC) 204.8GB/s</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>64GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 3x 4K30 (H.265) 7x 1080p60 (H.265) 15x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>1x 8K30 (H.265) 3x 4K60 (H.265) 7x 4K30 (H.265) 11x 1080p60 (H.265) 23x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Up to 6 cameras (16 via virtual channels) 16 lanes MIPI CSI-2 D-PHY 2.1 (up to 40Gbps) | C-PHY 2.0 (up to 164Gbps)</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Up to 2 x8 + 1 x4 + 2 x1  (PCIe Gen4, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 4x USB 2.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>1x GbE 1x 10GbE</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>1x 8K60 multi-mode DP 1.4a (+MST)/eDP 1.4a/HDMI 2.1</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t xml:space="preserve">4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs </t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>15W-75W</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -914,80 +942,86 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>2x NVDLA v2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.4 GHz</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>1x PVA v2</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.4 GHz</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>32GB 256-bit LPDDR5 204.8GB/s</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>64GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 3x 4K30 (H.265) 6x 1080p60 (H.265) 12x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>1x 8K30 (H.265) 2x 4K60 (H.265) 4x 4K30 (H.265) 9x 1080p60 (H.265) 18x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Up to 6 cameras (16 via virtual channels) 16 lanes MIPI CSI-2 D-PHY 2.1 (up to 40Gbps) | C-PHY 2.0 (up to 164Gbps)</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Up to 2 x8 + 1 x4 + 2 x1  (PCIe Gen4, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 4x USB 2.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>1x GbE 1x 10GbE</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>1x 8K60 multi-mode DP 1.4a (+MST)/eDP 1.4a/HDMI 2.1</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t xml:space="preserve">4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs </t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>15W - 40W</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1025,80 +1059,86 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>2x NVDLA v2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.23 GHz</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>1x PVA v2</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.23 GHz</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>16GB 128-bit LPDDR5 102.4GB/s</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>- (Supports external NVMe)</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 3x 4K30 (H.265) 6x 1080p60 (H.265) 12x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>1x 8K30 (H.265) 2x 4K60 (H.265) 4x 4K30 (H.265) 9x 1080p60 (H.265) 18x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Up to 4 cameras (8 via virtual channels***) 8 lanes MIPI CSI-2 D-PHY 2.1 (up to 20Gbps)</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>1 x4 + 3 x1 (PCIe Gen4, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 3x USB 2.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>1x 8K30 multi-mode DP 1.4a (+MST)/eDP 1.4a/HDMI 2.1</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>3x UART, 2x SPI, 2x I2S, 4x I2C, 1x CAN, DMIC &amp; DSPK, PWM, GPIOs</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>10W - 15W - 25W - 40W</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1136,80 +1176,86 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>1x NVDLA v2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.23 GHz</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>1x PVA v2</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.23 GHz</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>8GB 128-bit LPDDR5 102.4GB/s</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>- (Supports external NVMe)</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 3x 4K30 (H.265) 6x 1080p60 (H.265) 12x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>1x 8K30 (H.265) 2x 4K60 (H.265) 4x 4K30 (H.265) 9x 1080p60 (H.265) 18x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Up to 4 cameras (8 via virtual channels***) 8 lanes MIPI CSI-2 D-PHY 2.1 (up to 20Gbps)</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>1 x4 + 3 x1 (PCIe Gen4, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 3x USB 2.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>1x 8K30 multi-mode DP 1.4a (+MST)/eDP 1.4a/HDMI 2.1</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>3x UART, 2x SPI, 2x I2S, 4x I2C, 1x CAN, DMIC &amp; DSPK, PWM, GPIOs</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>10W - 15W - 25W - 40W</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1262,65 +1308,71 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>8GB 128-bit LPDDR5 102 GB/s</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>- (SD Card Slot &amp; external NVMe via M.2 Key M)</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1080p30 supported by 1-2 CPU cores</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 2x 4K30 (H.265) 5x 1080p60 (H.265) 11x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2x MIPI CSI-2 22-pin Camera Connectors</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t xml:space="preserve">M.2 Key M slot with x4 PCIe Gen3 M.2 Key M slot with x2 PCIe Gen3 M.2 Key E slot </t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t xml:space="preserve">USB Type-A Connector: 4x USB 3.2 Gen2  USB Type-C Connector for UFP </t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t xml:space="preserve">1xGbE Connector </t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>1x DisplayPort 1.2 (+MST) connector</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>40-Pin Expansion Header(UART, SPI, I2S, I2C, GPIO) 12-pin button header 4-pin fan header microSD Slot DC power jack</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>7W - 15W - 25W</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 100 mm x 79 mmx 21 mm (Height includes feet, carrier board, module, and thermal solution)</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1373,65 +1425,71 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>8GB 128-bit LPDDR5 102 GB/s</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>- (Supports external NVMe)</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1080p30 supported by 1-2 CPU cores</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 2x 4K30 (H.265) 5x 1080p60 (H.265) 11x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Up to 4 cameras (8 via virtual channels***) 8 lanes MIPI CSI-2 D-PHY 2.1 (up to 20Gbps)</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1 x4 + 3 x1 (PCIe Gen3, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 3x USB 2.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>1x 4K30 multi-mode DP 1.2 (+MST)/eDP 1.4/HDMI 1.4**</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>3x UART, 2x SPI, 2x I2S, 4x I2C, 1x CAN, DMIC &amp; DSPK, PWM, GPIOs</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>7W - 15W - 25W</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1484,65 +1542,71 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>4GB 64-bit LPDDR5 51 GB/s</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>- (Supports external NVMe)</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1080p30 supported by 1-2 CPU cores</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1x 4K60 (H.265) 2x 4K30 (H.265) 5x 1080p60 (H.265) 11x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Up to 4 cameras (8 via virtual channels***) 8 lanes MIPI CSI-2 D-PHY 2.1 (up to 20Gbps)</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>1 x4 + 3 x1 (PCIe Gen3, Root Port, &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 3x USB 2.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>1x 4K30 multi-mode DP 1.2 (+MST)/eDP 1.4/HDMI 1.4**</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3x UART, 2x SPI, 2x I2S, 4x I2C, 1x CAN, DMIC &amp; DSPK, PWM, GPIOs</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>7W - 10W - 25W</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1578,74 +1642,76 @@
           <t>2.6 GHz</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>1x PVA v3</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>128 GB 256-bit LPDDR5X 273 GB/s</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1 TB NVMe M.2 Key M Slot</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>6x 4Kp60 (H.265) 12x 4Kp30 (H.265) 24x 1080p60 (H.265) 50x 1080p30 (H.265) 48x 1080p30 (H.264) 6x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>4x 8Kp30 (H.265) 10x 4Kp60 (H.265) 22x 4Kp30 (H.265) 46x 1080p60 (H.265) 92x 1080p30 (H.265) 82x 1080p30 (H.264) 4x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>M.2 Key M slot with x4 PCIe Gen5 M.2 Key E slot with x1 PCIe Gen5</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2x USB-A (3.2 Gen2) 2x USB-C (3.1)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1x 5GBe RJ45 connector 1x QSFP28 (4x 25 GbE)</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1x HDMI 2.0b 1x DisplayPort 1.4a</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>QSFP connector M.2 Key E expansion slot (WLAN/BT, x1 PCIe, USB2.0, UART, I2C, I2S) M.2 Key M connector (NVMe for storage) PCIe x4 lane, I2C, PCIe x2 lane 2x 13-pin CAN header 2x 6-pin automation header LED JTAG connector (2x 5-pin header) 1x fan connector —12V, PWM, and Tach Audio panel header (2x 5-pin) Microfit power jack RTC backup battery connector 2-pin</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>40 W–130 W</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>243.19 mm x 112.40 mm x 56.88 mm Thermal Transfer Plate (TTP) and optional fan or heat sink</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>HSB camera via QSFP slot USB camera</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>M.2 Key M slot with x4 PCIe Gen5 M.2 Key E slot with x1 PCIe Gen5</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2x USB-A (3.2 Gen2) 2x USB-C (3.1)</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1x 5GBe RJ45 connector 1x QSFP28 (4x 25 GbE)</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1x HDMI 2.0b 1x DisplayPort 1.4a</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>QSFP connector M.2 Key E expansion slot (WLAN/BT, x1 PCIe, USB2.0, UART, I2C, I2S) M.2 Key M connector (NVMe for storage) PCIe x4 lane, I2C, PCIe x2 lane 2x 13-pin CAN header 2x 6-pin automation header LED JTAG connector (2x 5-pin header) 1x fan connector —12V, PWM, and Tach Audio panel header (2x 5-pin) Microfit power jack RTC backup battery connector 2-pin</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>40 W–130 W</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>243.19 mm x 112.40 mm x 56.88 mm Thermal Transfer Plate (TTP) and optional fan or heat sink</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1681,74 +1747,76 @@
           <t>2.6 GHz</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>1x PVA v3</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>128 GB 256-bit LPDDR5X 273 GB/s</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Supports NVMe through PCIe Supports SSD through USB3.2</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>6x 4Kp60 (H.265) 12x 4Kp30 (H.265) 24x 1080p60 (H.265) 50x 1080p30 (H.265) 48x 1080p30 (H.264) 6x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>4x 8Kp30 (H.265) 10x 4Kp60 (H.265) 22x 4Kp30 (H.265) 46x 1080p60 (H.265) 92x 1080p30 (H.265) 82x 1080p30 (H.264) 4x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Up to Gen5 (x8 lanes) Root port only—C1 (x1) and C3 (x2) Root Point or Endpoint—C2 (x1), C4 (x8), and C5 (x4)</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>xHCI host controller with integrated PHY (up to) 3x USB 3.2 4x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>4x 25 GbE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>4x shared HDMI2.1 VESA DisplayPort 1.4a—HBR2, MST</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>5x I2S/2x audio hub (AHUB), 2x DMIS, 4x UART, 4x CAN, 3x SPI, 13x I2C, 6x PWM outputs</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>40 W–130 W</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>Up to 20 cameras via HSB Up to 6 cameras through 16x lanes MIPI CSI-2 Up to 32 cameras using Virtual Channels C-PHY 2.1 (10.25 Gbps) D-PHY 2.1 (40 Gbps)</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Up to Gen5 (x8 lanes) Root port only—C1 (x1) and C3 (x2) Root Point or Endpoint—C2 (x1), C4 (x8), and C5 (x4)</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>xHCI host controller with integrated PHY (up to) 3x USB 3.2 4x USB 2.0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>4x 25 GbE</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>4x shared HDMI2.1 VESA DisplayPort 1.4a—HBR2, MST</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>5x I2S/2x audio hub (AHUB), 2x DMIS, 4x UART, 4x CAN, 3x SPI, 13x I2C, 6x PWM outputs</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>40 W–130 W</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1784,74 +1852,76 @@
           <t>2.6 GHz</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>1x PVA v3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>64 GB 256-bit LPDDR5X 273 GB/s</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Supports NVMe through PCIe Supports SSD through USB3.2</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>6x 4Kp60 (H.265) 12x 4Kp30 (H.265) 24x 1080p60 (H.265) 50x 1080p30 (H.265) 48x 1080p30 (H.264) 6x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>4x 8Kp30 (H.265) 10x 4Kp60 (H.265) 22x 4Kp30 (H.265) 46x 1080p60 (H.265) 92x 1080p30 (H.265) 82x 1080p30 (H.264) 4x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Up to Gen5 (x8 lanes) Root port only—C1 (x1) and C3 (x2) Root Point or Endpoint—C2 (x1), C4 (x8), and C5 (x4)</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>xHCI host controller with integrated PHY (up to) 3x USB 3.2 4x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>3x 25 Gbe</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>4x shared HDMI2.1 VESA DisplayPort 1.4a—HBR2, MST</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>5x I2S/2x audio hub (AHUB), 2x DMIS, 4x UART, 3x SPI, 13x I2C, 6x PWM outputs**</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>40 W–70 W</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>Up to 20 cameras via HSB Up to 6 cameras through 16x lanes MIPI CSI-2 Up to 32 cameras using Virtual Channels C-PHY 2.1 (10.25 Gbps) D-PHY 2.1 (40 Gbps)</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Up to Gen5 (x8 lanes) Root port only—C1 (x1) and C3 (x2) Root Point or Endpoint—C2 (x1), C4 (x8), and C5 (x4)</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>xHCI host controller with integrated PHY (up to) 3x USB 3.2 4x USB 2.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>3x 25 Gbe</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>4x shared HDMI2.1 VESA DisplayPort 1.4a—HBR2, MST</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>5x I2S/2x audio hub (AHUB), 2x DMIS, 4x UART, 3x SPI, 13x I2C, 6x PWM outputs**</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>40 W–70 W</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1887,82 +1957,84 @@
           <t>2.0 GHz</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.2 GHz</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>2x PVA</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.2 GHz</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>2x Arm® Cortex®-R5 in lockstep</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>32GB 256-bit LPDDR4x (ECC support) 136.5GB/s</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>64GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2x 4K60 (H.265) 6x 4K30 (H.265) 12x 1080p60 (H.265) 24x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2x 8K30 (H.265) 4x 4K60 (H.265) 8x 4K30 (H.265) 18x 1080p60 (H.265) 36x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Up to 6 cameras (36 via virtual channels) 16 lanes MIPI CSI-2 D-PHY 1.2 (up to 40 Gbps) C-PHY 1.1 (up to 62 Gbps)</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1 x8 + 1 x4 + 1 x2 + 2 x1 (PCIe Gen4, Root Port &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 4x USB 2.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>3 multi-mode DP 1.4/eDP 1.4/HDMI 2.0</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>5x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC, GPIOs</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>20W - 40W</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>2x NVDLA</t>
         </is>
@@ -2002,82 +2074,84 @@
           <t>2.2 GHz</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.4 GHz</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>2x PVA</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1.4 GHz</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>64GB 256-bit LPDDR4x 136.5GB/s</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>32GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>4x 4K60 (H.265) 8x 4K30 (H.265) 16x 1080p60 (H.265) 32x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2x 8K30 (H.265) 6x 4K60 (H.265) 12x 4K30 (H.265) 26x 1080p60 (H.265) 52x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Up to 6 cameras (36 via virtual channels) 16 lanes MIPI CSI-2 | 8 lanes SLVS-EC D-PHY 1.2 (up to 40 Gbps) C-PHY 1.1 (up to 62 Gbps)</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>1 x8 + 1 x4 + 1 x2 + 2 x1 (PCIe Gen4, Root Port &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 4x USB 2.0</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>3 multi-mode DP 1.4/eDP 1.4/HDMI 2.0</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>5x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC, GPIOs</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>10W - 30W</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>2x NVDLA</t>
         </is>
@@ -2117,82 +2191,84 @@
           <t>2.2 GHz</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.4 GHz</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>2x PVA</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1.4 GHz</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>32GB 256-bit LPDDR4x 136.5GB/s</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>32GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>4x 4K60 (H.265) 8x 4K30 (H.265) 16x 1080p60 (H.265) 32x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2x 8K30 (H.265) 6x 4K60 (H.265) 12x 4K30 (H.265) 26x 1080p60 (H.265) 52x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Up to 6 cameras (36 via virtual channels) 16 lanes MIPI CSI-2 | 8 lanes SLVS-EC D-PHY 1.2 (up to 40 Gbps) C-PHY 1.1 (up to 62 Gbps)</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>1 x8 + 1 x4 + 1 x2 + 2 x1 (PCIe Gen4, Root Port &amp; Endpoint)</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>3x USB 3.2 Gen2 (10 Gbps) 4x USB 2.0</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>3 multi-mode DP 1.4/eDP 1.4/HDMI 2.0</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>5x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC, GPIOs</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>10W - 30W</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>2x NVDLA</t>
         </is>
@@ -2232,82 +2308,84 @@
           <t>1.9 GHz</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.1 GHz</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>2x PVA</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1.1 GHz</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>16GB 128-bit LPDDR4x 59.7GB/s</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>16GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2x 4K60 (H.265) 4x 4K30 (H.265) 10x 1080p60 (H.265) 22x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2x 8K30 (H.265) 6x 4K60 (H.265) 12x 4K30 (H.265) 22x 1080p60 (H.265)  44x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Up to 6 cameras (24 via virtual channels) 14 lanes MIPI CSI-2 D-PHY 1.2 (up to 30 Gbps)</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>1 x4 (PCIe Gen4) + 1 x1 (PCIe Gen3)</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>1x USB 3.2 Gen2 (10 Gbps) 3x USB 2.0</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>2 multi-mode DP 1.4/eDP 1.4/HDMI 2.0</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>3x UART, 2x SPI, 2x I2S, 4x I2C, 1x CAN, PWM, DMIC &amp; DSPK, GPIOs</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>10W - 20W</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>2x NVDLA</t>
         </is>
@@ -2347,86 +2425,492 @@
           <t>1.9 GHz</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.1 GHz</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>2x PVA</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1.1 GHz</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>8GB 128-bit LPDDR4x 59.7GB/s</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>16GB eMMC 5.1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2x 4K60 (H.265) 4x 4K30 (H.265) 10x 1080p60 (H.265) 22x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2x 8K30 (H.265) 6x 4K60 (H.265) 12x 4K30 (H.265) 22x 1080p60 (H.265)  44x 1080p30 (H.265)</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Up to 6 cameras (24 via virtual channels) 14 lanes MIPI CSI-2 D-PHY 1.2 (up to 30 Gbps)</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>1 x4 (PCIe Gen4) + 1 x1 (PCIe Gen3)</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>1x USB 3.2 Gen2 (10 Gbps) 3x USB 2.0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>1x GbE</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>2 multi-mode DP 1.4/eDP 1.4/HDMI 2.0</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>3x UART, 2x SPI, 2x I2S, 4x I2C, 1x CAN, PWM, DMIC &amp; DSPK, GPIOs</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>10W - 20W</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>2x NVDLA</t>
         </is>
       </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jetson TX2i</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.26 TFLOPS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.12GHz</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dual-core NVIDIA Denver™ 2 64-bit CPU and quad-core Arm® Cortex®-A57 MPCore processor</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Denver2: 1.95 GHzCortex-A57: 1.92 GHz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>8GB 128-bit LPDDR4 (ECC Support)51.2GB/s</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>32GB eMMC 5.1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1x 4K60 (H.265)3x 4K30 (H.265)4x 1080p60 (H.265)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2x 4K60 (H.265)7x 1080p60 (H.265)14x 1080p30 (H.265)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Up to 6 cameras(12 via virtual channels)12 lanes MIPI CSI-2D-PHY 1.2 (up to 30 Gbps)</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>up to 1 x1 + 1 x4 OR 1 x1 + 1 x1 + 1 x2(PCIe Gen2)</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>up to 3x USB 3.0 (5 Gbps)3x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1x GbE</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2 multi-mode DP 1.2/eDP 1.4/HDMI 2.02 x4 DSI (1.5Gbps/lane)</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>5x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, GPIOs</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>10W - 20W</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jetson TX2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.33 TFLOPS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.3 GHz</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dual-core NVIDIA Denver™ 2 64-bit CPU and quad-core Arm® Cortex®-A57 MPCore processor</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Denver 2: 2 GHzCortex-A57: 2 GHz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>8GB 128-bit LPDDR459.7GB/s</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>32GB eMMC 5.1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1x 4K60 (H.265)3x 4K30 (H.265)4x 1080p60 (H.265)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2x 4K60 (H.265)7x 1080p60 (H.265)14x 1080p30 (H.265)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Up to 6 cameras(12 via virtual channels)12 lanes MIPI CSI-2D-PHY 1.2 (up to 30 Gbps)</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>up to 1 x1 + 1 x4 OR 1 x1 + 1 x1 + 1 x2(PCIe Gen2)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>up to 3x USB 3.0 (5 Gbps)3x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1x GbE, WLAN</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2 multi-mode DP 1.2/eDP 1.4/HDMI 2.02 x4 DSI (1.5Gbps/lane)</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>5x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, GPIOs</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>7.5W - 15W</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jetson TX2 4GB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.33 TFLOPS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.3 GHz</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dual-core NVIDIA Denver™ 2 64-bit CPU and quad-core Arm® Cortex®-A57 MPCore processor</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Denver 2: 2 GHzCortex-A57: 2 GHz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>4GB 128-bit LPDDR451.2GB/s</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>16GB eMMC 5.1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1x 4K60 (H.265)3x 4K30 (H.265)4x 1080p60 (H.265)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2x 4K60 (H.265)7x 1080p60 (H.265)14x 1080p30 (H.265)</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Up to 6 cameras(12 via virtual channels)12 lanes MIPI CSI-2D-PHY 1.2 (up to 30 Gbps)</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>up to 1 x1 + 1 x4 OR 1 x1 + 1 x1 + 1 x2(PCIe Gen2)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>up to 3x USB 3.0 (5 Gbps)3x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1x GbE, WLAN</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2 multi-mode DP 1.2/eDP 1.4/HDMI 2.02 x4 DSI (1.5Gbps/lane)</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>5x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, GPIOs</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>7.5W - 15W</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jetson TX2 NX</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.33 TFLOPS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.3 GHz</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dual-core NVIDIA Denver™ 2 64-bit CPU and quad-core Arm® Cortex®-A57 MPCore processor</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Denver 2: 2 GHzCortex-A57: 2 GHz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>4GB 128-bit LPDDR451.2GB/s</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>16GB eMMC 5.1</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1x 4K60 (H.265)3x 4K30 (H.265)4x 1080p60 (H.265)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2x 4K60 (H.265)7x 1080p60 (H.265)14x 1080p30 (H.265)</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Up to 5 cameras(12 via virtual channels)12 lanes MIPI CSI-2D-PHY 1.1 (up to 30 Gbps)</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1 x1 + 1 x2(PCIe Gen2)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1x USB 3.0 (5 Gbps)3x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1x GbE</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2 multi-mode DP 1.2/eDP 1.4/HDMI 2.01x 2 DSI (1.5Gbps/lane)</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>3x UART, 2x SPI, 4x I2S, 4x I2C, 1x CAN, GPIOs</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>7.5W - 15W</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,6 +2912,123 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jetson Nano</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>472 GFLOPS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>128-core NVIDIA Maxwell™ architecture GPU</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>921MHz</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Quad-core ARM® Cortex®-A57 MPCore processor</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.43GHz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>4GB 64-bit LPDDR425.6GB/s</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>16GB eMMC 5.1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1x 4K30 (H.265)2x 1080p60 (H.265)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1x 4K60 (H.265)4x 1080p60 (H.265)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Up to 4 cameras12 lanes MIPI CSI-2D-PHY 1.1 (up to 18 Gbps)</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1 x4(PCIe Gen2)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1x USB 3.0 (5 Gbps)3x USB 2.0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1x GbE</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2 multi-mode DP 1.2/eDP 1.4/HDMI 2.01 x2 DSI (1.5Gbps/lane)</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>3x UART, 2x SPI, 2x I2S, 4x I2C, GPIOs</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>5W - 10W</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>CSI Camera</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -542,16 +542,6 @@
       <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Mechanical</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Camera</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DL Accelerator </t>
         </is>
       </c>
     </row>
@@ -641,7 +631,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t xml:space="preserve">USB Type-C connector: 2x USB 3.2 Gen2 USB Type-A connector: 2x USB 3.2 Gen2, 2x USB 3.2 Gen1  USB Micro-B connector: USB 2.0 </t>
+          <t>USB Type-C connector: 2x USB 3.2 Gen2 USB Type-A connector: 2x USB 3.2 Gen2, 2x USB 3.2 Gen1  USB Micro-B connector: USB 2.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -669,8 +659,6 @@
           <t>110mm x 110mm x 71.65mm (Height includes feet, carrier board, module, and thermal solution)</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -773,7 +761,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs </t>
+          <t>4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -786,8 +774,6 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -890,7 +876,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs </t>
+          <t>4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -903,8 +889,6 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1007,7 +991,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs </t>
+          <t>4x UART, 3x SPI, 4x I2S, 8x I2C, 2x CAN, PWM, DMIC &amp; DSPK, GPIOs</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1020,8 +1004,6 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1137,8 +1119,6 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1254,8 +1234,6 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1323,7 +1301,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1080p30 supported by 1-2 CPU cores</t>
+          <t>1080p30 supported by 1-2 CPU cores</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1338,17 +1316,17 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">M.2 Key M slot with x4 PCIe Gen3 M.2 Key M slot with x2 PCIe Gen3 M.2 Key E slot </t>
+          <t>M.2 Key M slot with x4 PCIe Gen3 M.2 Key M slot with x2 PCIe Gen3 M.2 Key E slot</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t xml:space="preserve">USB Type-A Connector: 4x USB 3.2 Gen2  USB Type-C Connector for UFP </t>
+          <t>USB Type-A Connector: 4x USB 3.2 Gen2  USB Type-C Connector for UFP</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1xGbE Connector </t>
+          <t>1xGbE Connector</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1368,11 +1346,9 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 mm x 79 mmx 21 mm (Height includes feet, carrier board, module, and thermal solution)</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+          <t>100 mm x 79 mmx 21 mm (Height includes feet, carrier board, module, and thermal solution)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1440,7 +1416,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1080p30 supported by 1-2 CPU cores</t>
+          <t>1080p30 supported by 1-2 CPU cores</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1488,8 +1464,6 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1507,7 +1481,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">512-core NVIDIA Ampere architecture GPU with 16 Tensor Cores </t>
+          <t>512-core NVIDIA Ampere architecture GPU with 16 Tensor Cores</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1557,7 +1531,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1080p30 supported by 1-2 CPU cores</t>
+          <t>1080p30 supported by 1-2 CPU cores</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1605,8 +1579,6 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1670,7 +1642,11 @@
           <t>4x 8Kp30 (H.265) 10x 4Kp60 (H.265) 22x 4Kp30 (H.265) 46x 1080p60 (H.265) 92x 1080p30 (H.265) 82x 1080p30 (H.264) 4x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>HSB camera via QSFP slot USB camera</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>M.2 Key M slot with x4 PCIe Gen5 M.2 Key E slot with x1 PCIe Gen5</t>
@@ -1706,12 +1682,6 @@
           <t>243.19 mm x 112.40 mm x 56.88 mm Thermal Transfer Plate (TTP) and optional fan or heat sink</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>HSB camera via QSFP slot USB camera</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1775,7 +1745,11 @@
           <t>4x 8Kp30 (H.265) 10x 4Kp60 (H.265) 22x 4Kp30 (H.265) 46x 1080p60 (H.265) 92x 1080p30 (H.265) 82x 1080p30 (H.264) 4x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Up to 20 cameras via HSB Up to 6 cameras through 16x lanes MIPI CSI-2 Up to 32 cameras using Virtual Channels C-PHY 2.1 (10.25 Gbps) D-PHY 2.1 (40 Gbps)</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>Up to Gen5 (x8 lanes) Root port only—C1 (x1) and C3 (x2) Root Point or Endpoint—C2 (x1), C4 (x8), and C5 (x4)</t>
@@ -1811,12 +1785,6 @@
           <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Up to 20 cameras via HSB Up to 6 cameras through 16x lanes MIPI CSI-2 Up to 32 cameras using Virtual Channels C-PHY 2.1 (10.25 Gbps) D-PHY 2.1 (40 Gbps)</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1880,7 +1848,11 @@
           <t>4x 8Kp30 (H.265) 10x 4Kp60 (H.265) 22x 4Kp30 (H.265) 46x 1080p60 (H.265) 92x 1080p30 (H.265) 82x 1080p30 (H.264) 4x 4Kp60 (H.264)</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Up to 20 cameras via HSB Up to 6 cameras through 16x lanes MIPI CSI-2 Up to 32 cameras using Virtual Channels C-PHY 2.1 (10.25 Gbps) D-PHY 2.1 (40 Gbps)</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>Up to Gen5 (x8 lanes) Root port only—C1 (x1) and C3 (x2) Root Point or Endpoint—C2 (x1), C4 (x8), and C5 (x4)</t>
@@ -1916,12 +1888,6 @@
           <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Up to 20 cameras via HSB Up to 6 cameras through 16x lanes MIPI CSI-2 Up to 32 cameras using Virtual Channels C-PHY 2.1 (10.25 Gbps) D-PHY 2.1 (40 Gbps)</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1939,7 +1905,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">512-core NVIDIA Volta architecture GPU with 64 Tensor Cores </t>
+          <t>512-core NVIDIA Volta architecture GPU with 64 Tensor Cores</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1957,7 +1923,11 @@
           <t>2.0 GHz</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2x NVDLA</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>1.2 GHz</t>
@@ -2031,12 +2001,6 @@
       <c r="W14" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>2x NVDLA</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2020,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">512-core NVIDIA Volta architecture GPU with 64 Tensor Cores </t>
+          <t>512-core NVIDIA Volta architecture GPU with 64 Tensor Cores</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1377 MHz </t>
+          <t>1377 MHz</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2074,7 +2038,11 @@
           <t>2.2 GHz</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2x NVDLA</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>1.4 GHz</t>
@@ -2148,12 +2116,6 @@
       <c r="W15" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2x NVDLA</t>
         </is>
       </c>
     </row>
@@ -2173,12 +2135,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">512-core NVIDIA Volta architecture GPU with 64 Tensor Cores </t>
+          <t>512-core NVIDIA Volta architecture GPU with 64 Tensor Cores</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1377 MHz </t>
+          <t>1377 MHz</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2191,7 +2153,11 @@
           <t>2.2 GHz</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2x NVDLA</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>1.4 GHz</t>
@@ -2265,12 +2231,6 @@
       <c r="W16" t="inlineStr">
         <is>
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2x NVDLA</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2250,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">384-core NVIDIA Volta™ architecture GPU with 48 Tensor Cores </t>
+          <t>384-core NVIDIA Volta™ architecture GPU with 48 Tensor Cores</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1100 MHz </t>
+          <t>1100 MHz</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2308,7 +2268,11 @@
           <t>1.9 GHz</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2x NVDLA</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>1.1 GHz</t>
@@ -2382,12 +2346,6 @@
       <c r="W17" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2x NVDLA</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2365,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">384-core NVIDIA Volta™ architecture GPU with 48 Tensor Cores </t>
+          <t>384-core NVIDIA Volta™ architecture GPU with 48 Tensor Cores</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1100 MHz </t>
+          <t>1100 MHz</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2425,7 +2383,11 @@
           <t>1.9 GHz</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2x NVDLA</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>1.1 GHz</t>
@@ -2499,12 +2461,6 @@
       <c r="W18" t="inlineStr">
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2x NVDLA</t>
         </is>
       </c>
     </row>
@@ -2606,8 +2562,6 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2707,8 +2661,6 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2808,8 +2760,6 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2909,8 +2859,6 @@
           <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3026,8 +2974,6 @@
           <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -1582,7 +1582,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>275 TOPS</t>
+          <t>275 TFLOPS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2048-core NVIDIA Ampere architecture GPU with 64 Tensor Cores</t>
+          <t>2048-core Ampere with 64 tensor cores</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>275 TOPS</t>
+          <t>275 TFLOPS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2048-core NVIDIA Ampere architecture GPU with 64 Tensor Cores</t>
+          <t>2048-core Ampere with 64 tensor cores</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>248 TOPs</t>
+          <t>248 TFLOPS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2048-core NVIDIA Ampere architecture GPU with 64 Tensor Cores</t>
+          <t>2048-core Ampere with 64 tensor cores</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>200 TOPS</t>
+          <t>200 TFLOPS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1792-core NVIDIA Ampere c GPU with 56 Tensor Cores</t>
+          <t>1792-core Ampere with 56 tensor cores</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>157 TOPS</t>
+          <t>157 TFLOPS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1024-core NVIDIA Ampere architecture GPU with 32 Tensor Cores</t>
+          <t>1024-core Ampere with 32 tensor cores</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>117 TOPS</t>
+          <t>117 TFLOPS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1024-core NVIDIA Ampere architecture GPU with 32 Tensor Cores</t>
+          <t>1024-core Ampere with 32 tensor cores</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>67 TOPS</t>
+          <t>67 TFLOPS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1024-core NVIDIA Ampere architecture GPU with 32 Tensor Cores</t>
+          <t>1024-core Ampere with 32 tensor cores</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>67 TOPS</t>
+          <t>67 TFLOPS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1024-core NVIDIA Ampere architecture GPU with 32 Tensor Cores</t>
+          <t>1024-core Ampere with 32 tensor cores</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34 TOPS</t>
+          <t>34 TFLOPS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>512-core NVIDIA Ampere architecture GPU with 16 Tensor Cores</t>
+          <t>512-core Ampere with 16 tensor cores</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2070 TFLOPS (FP4—Sparse)</t>
+          <t>2070 TFLOPS (FP4-Sparse)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2560-core NVIDIA Blackwell architecture GPU with 96 fifth-gen Tensor Cores Multi-Instance GPU (MIG) with 10 TPCs</t>
+          <t>2560-core Blackwell with 96 fifth-gen tensor cores and Multi-Instance GPU (MIG) with 10 TPCs</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2070 TFLOPS (FP4—Sparse)</t>
+          <t>2070 TFLOPS (FP4-Sparse)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2560-core NVIDIA Blackwell architecture GPU with 96 fifth-gen Tensor Cores Multi-Instance GPU (MIG) with 10 TPCs</t>
+          <t>2560-core Blackwell with 96 fifth-gen tensor cores and Multi-Instance GPU (MIG) with 10 TPCs</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1200 TFLOPS (FP4—Sparse)</t>
+          <t>1200 TFLOPS (FP4-Sparse)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1536-core NVIDIA Blackwell architecture GPU with 64 fifth-gen Tensor Cores Multi-Instance GPU (MIG) with 6 TPCs</t>
+          <t>1536-core Blackwell with 64 fifth-gen tensor cores and Multi-Instance GPU (MIG) with 6 TPCs</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30 TOPS</t>
+          <t>30 TFLOPS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>512-core NVIDIA Volta architecture GPU with 64 Tensor Cores</t>
+          <t>512-core Volta with 64 tensor cores</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2015,12 +2015,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>32 TOPS</t>
+          <t>32 TFLOPS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>512-core NVIDIA Volta architecture GPU with 64 Tensor Cores</t>
+          <t>512-core Volta with 64 tensor cores</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>32 TOPS</t>
+          <t>32 TFLOPS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>512-core NVIDIA Volta architecture GPU with 64 Tensor Cores</t>
+          <t>512-core Volta with 64 tensor cores</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21 TOPS</t>
+          <t>21 TFLOPS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>384-core NVIDIA Volta™ architecture GPU with 48 Tensor Cores</t>
+          <t>384-core Volta with 48 tensor cores</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21 TOPS</t>
+          <t>21 TFLOPS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>384-core NVIDIA Volta™ architecture GPU with 48 Tensor Cores</t>
+          <t>384-core Volta with 48 tensor cores</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+          <t>256-core Pascal</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+          <t>256-core Pascal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+          <t>256-core Pascal</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>256-core NVIDIA Pascal™ architecture GPU</t>
+          <t>256-core Pascal</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>128-core NVIDIA Maxwell™ architecture GPU</t>
+          <t>128-core Maxwell</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>Mechanical</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -659,6 +664,9 @@
           <t>110mm x 110mm x 71.65mm (Height includes feet, carrier board, module, and thermal solution)</t>
         </is>
       </c>
+      <c r="X2" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -774,6 +782,9 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X3" t="n">
+        <v>1799</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -889,6 +900,9 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X4" t="n">
+        <v>2349</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1004,6 +1018,7 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1119,6 +1134,9 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
+      <c r="X6" t="n">
+        <v>699</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1234,6 +1252,9 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
+      <c r="X7" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1349,6 +1370,9 @@
           <t>100 mm x 79 mmx 21 mm (Height includes feet, carrier board, module, and thermal solution)</t>
         </is>
       </c>
+      <c r="X8" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1464,6 +1488,9 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
+      <c r="X9" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1579,6 +1606,9 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
+      <c r="X10" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1682,6 +1712,9 @@
           <t>243.19 mm x 112.40 mm x 56.88 mm Thermal Transfer Plate (TTP) and optional fan or heat sink</t>
         </is>
       </c>
+      <c r="X11" t="n">
+        <v>3499</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1785,6 +1818,9 @@
           <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
         </is>
       </c>
+      <c r="X12" t="n">
+        <v>3199</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1888,6 +1924,7 @@
           <t>100 mm x 87 mm 699-pin B2B connector Integrated Thermal Transfer Plate (TTP) with heatpipe</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2003,6 +2040,9 @@
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X14" t="n">
+        <v>1449</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2118,6 +2158,9 @@
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X15" t="n">
+        <v>1399</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2233,6 +2276,9 @@
           <t>100mm x 87mm 699-pin connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X16" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2348,6 +2394,9 @@
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
       </c>
+      <c r="X17" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2462,6 +2511,9 @@
         <is>
           <t>69.6mm x 45mm 260-pin SO-DIMM connector</t>
         </is>
+      </c>
+      <c r="X18" t="n">
+        <v>479</v>
       </c>
     </row>
     <row r="19">
@@ -2562,6 +2614,9 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X19" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2661,6 +2716,9 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X20" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2760,6 +2818,7 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2859,6 +2918,7 @@
           <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2973,6 +3033,9 @@
         <is>
           <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
         </is>
+      </c>
+      <c r="X23" t="n">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>64GB 256-bit LPDDR5  204.8GB/s</t>
+          <t>64 GB 256-bit LPDDR5 @ 204.8 GB/s</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>64GB 256-bit LPDDR5  204.8GB/s</t>
+          <t>64 GB 256-bit LPDDR5 @ 204.8 GB/s</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>64GB 256-bit LPDDR5 (+ ECC) 204.8GB/s</t>
+          <t>64 GB 256-bit LPDDR5 @ 204.8 GB/s ECC</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>32GB 256-bit LPDDR5 204.8GB/s</t>
+          <t>32 GB 256-bit LPDDR5 @ 204.8 GB/s</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16GB 128-bit LPDDR5 102.4GB/s</t>
+          <t>16 GB 128-bit LPDDR5 @ 102.4 GB/s</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8GB 128-bit LPDDR5 102.4GB/s</t>
+          <t>8 GB 128-bit LPDDR5 @ 102.4 GB/s</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8GB 128-bit LPDDR5 102 GB/s</t>
+          <t>8 GB 128-bit LPDDR5 @ 102.0 GB/s</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8GB 128-bit LPDDR5 102 GB/s</t>
+          <t>8 GB 128-bit LPDDR5 @ 102.0 GB/s</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4GB 64-bit LPDDR5 51 GB/s</t>
+          <t>4 GB 64-bit LPDDR5 @ 51.0 GB/s</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1654,7 +1654,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>128 GB 256-bit LPDDR5X 273 GB/s</t>
+          <t>128 GB 256-bit LPDDR5X @ 273.0 GB/s</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>128 GB 256-bit LPDDR5X 273 GB/s</t>
+          <t>128 GB 256-bit LPDDR5X @ 273.0 GB/s</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1866,7 +1866,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>64 GB 256-bit LPDDR5X 273 GB/s</t>
+          <t>64 GB 256-bit LPDDR5X @ 273.0 GB/s</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>32GB 256-bit LPDDR4x (ECC support) 136.5GB/s</t>
+          <t>32 GB 256-bit LPDDR4x @ 136.5 GB/s ECC</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>64GB 256-bit LPDDR4x 136.5GB/s</t>
+          <t>64 GB 256-bit LPDDR4x @ 136.5 GB/s</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>32GB 256-bit LPDDR4x 136.5GB/s</t>
+          <t>32 GB 256-bit LPDDR4x @ 136.5 GB/s</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>16GB 128-bit LPDDR4x 59.7GB/s</t>
+          <t>16 GB 128-bit LPDDR4x @ 59.7 GB/s</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>8GB 128-bit LPDDR4x 59.7GB/s</t>
+          <t>8 GB 128-bit LPDDR4x @ 59.7 GB/s</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2556,7 +2556,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8GB 128-bit LPDDR4 (ECC Support)51.2GB/s</t>
+          <t>8 GB 128-bit LPDDR4 @ 51.2 GB/s ECC</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2658,7 +2658,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8GB 128-bit LPDDR459.7GB/s</t>
+          <t>8 GB 128-bit LPDDR4 @ 59.7 GB/s</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2760,7 +2760,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>4GB 128-bit LPDDR451.2GB/s</t>
+          <t>4 GB 128-bit LPDDR4 @ 51.2 GB/s</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2860,7 +2860,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>4GB 128-bit LPDDR451.2GB/s</t>
+          <t>4 GB 128-bit LPDDR4 @ 51.2 GB/s</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>4GB 64-bit LPDDR425.6GB/s</t>
+          <t>4 GB 64-bit LPDDR4 @ 25.6 GB/s</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Jetson" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,10 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -1021,7 +1021,9 @@
           <t>100mm x 87mm 699-pin Molex Mirror Mezz Connector Integrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2719,9 +2721,7 @@
           <t>87mm x 50mm400-pin connectorIntegrated Thermal Transfer Plate</t>
         </is>
       </c>
-      <c r="X20" t="n">
-        <v>199</v>
-      </c>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2921,7 +2921,9 @@
           <t>69.6mm x 45mm260-pin SO-DIMM connector</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">

--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>275 TFLOPS</t>
+          <t>275 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>275 TFLOPS</t>
+          <t>275 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>248 TFLOPS</t>
+          <t>248 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>200 TFLOPS</t>
+          <t>200 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>157 TFLOPS</t>
+          <t>157 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>117 TFLOPS</t>
+          <t>117 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>67 TFLOPS</t>
+          <t>67 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>67 TFLOPS</t>
+          <t>67 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34 TFLOPS</t>
+          <t>34 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30 TFLOPS</t>
+          <t>30 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>32 TFLOPS</t>
+          <t>32 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>32 TFLOPS</t>
+          <t>32 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21 TFLOPS</t>
+          <t>21 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21 TFLOPS</t>
+          <t>21 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.26 TFLOPS</t>
+          <t>1.26 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.33 TFLOPS</t>
+          <t>1.33 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.33 TFLOPS</t>
+          <t>1.33 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.33 TFLOPS</t>
+          <t>1.33 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>472 GFLOPS</t>
+          <t>0.472 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
